--- a/Casa-Excel-Students.xlsx
+++ b/Casa-Excel-Students.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{1A309919-F51A-4C8A-8FEA-7901A4144161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="CASA-Student List" sheetId="2" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="Title1">Students[[#Headers],[STUDENT NAME]]</definedName>
     <definedName name="Title2">StudentRoster[[#Headers],[STUDENT NAME]]</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="58">
   <si>
     <t>DOB</t>
   </si>
@@ -208,12 +207,18 @@
   </si>
   <si>
     <t>corianojacqueline@gmail.com</t>
+  </si>
+  <si>
+    <t>Kramos@wearecasa.org</t>
+  </si>
+  <si>
+    <t>Kenia Ramos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
     <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -619,7 +624,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -709,6 +714,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="172" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -757,21 +777,7 @@
     <xf numFmtId="172" fontId="17" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Calculation" xfId="2" builtinId="22" customBuiltin="1"/>
@@ -1231,7 +1237,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="ClassRoster_table1" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ClassRoster_table1" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="ClassRoster_table1" pivot="0" count="6">
       <tableStyleElement type="wholeTable" dxfId="23"/>
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstColumn" dxfId="21"/>
@@ -2152,18 +2158,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Students" displayName="Students" ref="D4:M17" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Students" displayName="Students" ref="D4:M17" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <tableColumns count="10">
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="STUDENT NAME" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EMAIL" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="HOME PHONE" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CELL PHONE" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DOB" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EMERGENCY CONTACT" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="EMERGENCY PHONE" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PHYSICIAN" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="PHYSICIAN PHONE" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="  " dataCellStyle="Normal"/>
+    <tableColumn id="15" name="STUDENT NAME" dataDxfId="15"/>
+    <tableColumn id="3" name="EMAIL" dataDxfId="14"/>
+    <tableColumn id="4" name="HOME PHONE" dataDxfId="13"/>
+    <tableColumn id="5" name="CELL PHONE" dataDxfId="12"/>
+    <tableColumn id="6" name="DOB" dataDxfId="11"/>
+    <tableColumn id="7" name="EMERGENCY CONTACT" dataDxfId="10"/>
+    <tableColumn id="8" name="EMERGENCY PHONE" dataDxfId="9"/>
+    <tableColumn id="9" name="PHYSICIAN" dataDxfId="8"/>
+    <tableColumn id="10" name="PHYSICIAN PHONE" dataDxfId="7"/>
+    <tableColumn id="2" name="  " dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ClassRoster_table1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2175,19 +2181,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="StudentRoster" displayName="StudentRoster" ref="C8:G13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="StudentRoster" displayName="StudentRoster" ref="C8:G13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="STUDENT NAME" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="EMAIL" dataDxfId="3">
+    <tableColumn id="1" name="STUDENT NAME" dataDxfId="4"/>
+    <tableColumn id="2" name="EMAIL" dataDxfId="3">
       <calculatedColumnFormula>IFERROR(VLOOKUP(StudentRoster[[#This Row],[STUDENT NAME]],Students[],2),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="HOME PHONE" dataDxfId="2">
+    <tableColumn id="3" name="HOME PHONE" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(VLOOKUP(StudentRoster[[#This Row],[STUDENT NAME]],Students[],3),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="CELL PHONE" dataDxfId="1">
+    <tableColumn id="4" name="CELL PHONE" dataDxfId="1">
       <calculatedColumnFormula>IFERROR(VLOOKUP(StudentRoster[[#This Row],[STUDENT NAME]],Students[],4),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="  " dataDxfId="0"/>
+    <tableColumn id="6" name="  " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="ClassRoster_table1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2397,72 +2403,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:R19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="1.58203125" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" customWidth="1"/>
-    <col min="6" max="6" width="24.9140625" customWidth="1"/>
+    <col min="1" max="2" width="1.625" customWidth="1"/>
+    <col min="3" max="3" width="3.875" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="15.4140625" customWidth="1"/>
-    <col min="9" max="9" width="25.58203125" customWidth="1"/>
-    <col min="10" max="10" width="27.58203125" customWidth="1"/>
-    <col min="11" max="11" width="24.58203125" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" customWidth="1"/>
-    <col min="13" max="14" width="1.58203125" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="25.625" customWidth="1"/>
+    <col min="10" max="10" width="27.625" customWidth="1"/>
+    <col min="11" max="11" width="24.625" customWidth="1"/>
+    <col min="12" max="12" width="20.625" customWidth="1"/>
+    <col min="13" max="14" width="1.625" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="14" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="31" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-    </row>
-    <row r="3" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
+    </row>
+    <row r="3" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="35" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-    </row>
-    <row r="4" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="41"/>
+    </row>
+    <row r="4" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
-      <c r="C4" s="50"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
@@ -2494,15 +2500,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
-      <c r="C5" s="50">
+      <c r="C5" s="34">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="31" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2527,16 +2533,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
-      <c r="C6" s="50">
+      <c r="C6" s="34">
         <f>C5+1</f>
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="31" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2561,16 +2567,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
-      <c r="C7" s="50">
-        <f t="shared" ref="C7:C17" si="0">C6+1</f>
+      <c r="C7" s="34">
+        <f t="shared" ref="C7:C18" si="0">C6+1</f>
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="31" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2595,16 +2601,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
-      <c r="C8" s="50">
+      <c r="C8" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="31" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2628,24 +2634,24 @@
       <c r="L8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-    </row>
-    <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+    </row>
+    <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
-      <c r="C9" s="50">
+      <c r="C9" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="31" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2669,22 +2675,22 @@
       <c r="L9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-    </row>
-    <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+    </row>
+    <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
-      <c r="C10" s="50">
+      <c r="C10" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="32" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2708,22 +2714,22 @@
       <c r="L10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-    </row>
-    <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+    </row>
+    <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
-      <c r="C11" s="50">
+      <c r="C11" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="31" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2747,22 +2753,22 @@
       <c r="L11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-    </row>
-    <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="42"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+    </row>
+    <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
-      <c r="C12" s="50">
+      <c r="C12" s="34">
         <f>C11+1</f>
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="31" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2786,22 +2792,22 @@
       <c r="L12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-    </row>
-    <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="42"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+    </row>
+    <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
-      <c r="C13" s="50">
+      <c r="C13" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="31" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2825,22 +2831,22 @@
       <c r="L13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-    </row>
-    <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="42"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+    </row>
+    <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
-      <c r="C14" s="50">
+      <c r="C14" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="31" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2864,22 +2870,22 @@
       <c r="L14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-    </row>
-    <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="42"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+    </row>
+    <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
-      <c r="C15" s="50">
+      <c r="C15" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="31" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2903,22 +2909,22 @@
       <c r="L15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="37"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-    </row>
-    <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="42"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+    </row>
+    <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
-      <c r="C16" s="50">
+      <c r="C16" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="31" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2942,22 +2948,22 @@
       <c r="L16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-    </row>
-    <row r="17" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="42"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+    </row>
+    <row r="17" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
-      <c r="C17" s="50">
+      <c r="C17" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="31" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2981,32 +2987,52 @@
       <c r="L17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="37"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-    </row>
-    <row r="18" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="42"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+    </row>
+    <row r="18" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="23"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="C18" s="35">
+        <v>14</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="M18" s="30"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-    </row>
-    <row r="19" spans="2:18" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+    </row>
+    <row r="19" spans="2:18" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D2:E3"/>
@@ -3015,40 +3041,41 @@
     <mergeCell ref="N8:R18"/>
   </mergeCells>
   <dataValidations disablePrompts="1" xWindow="144" yWindow="415" count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create Class Roster in this workbook. Enter details in Students table in this worksheet. Select cell E2 and E3 to navigate to other worksheets. Tip is in cell M7" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell" sqref="D2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Student Name in this column under this heading" sqref="D4" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Email address in this column under this heading" sqref="E4" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Home Phone number in this column under this heading" sqref="F4" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Cell Phone number in this column under this heading" sqref="G4" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Date of Birth in this column under this heading" sqref="H4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Emergency Contact person name in this column under this heading" sqref="I4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Emergency Phone number in this column under this heading" sqref="J4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Physician name in this column under this heading" sqref="K4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Physician Phone number in this column under this heading" sqref="L4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Class Roster worksheet is in this cell" sqref="F2" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Student Details worksheet is in this cell" sqref="F3" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Tip is in this cell" sqref="N8:N16" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create Class Roster in this workbook. Enter details in Students table in this worksheet. Select cell E2 and E3 to navigate to other worksheets. Tip is in cell M7" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell" sqref="D2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Student Name in this column under this heading" sqref="D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Email address in this column under this heading" sqref="E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Home Phone number in this column under this heading" sqref="F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Cell Phone number in this column under this heading" sqref="G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Date of Birth in this column under this heading" sqref="H4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Emergency Contact person name in this column under this heading" sqref="I4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Emergency Phone number in this column under this heading" sqref="J4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Physician name in this column under this heading" sqref="K4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Physician Phone number in this column under this heading" sqref="L4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Class Roster worksheet is in this cell" sqref="F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Student Details worksheet is in this cell" sqref="F3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Tip is in this cell" sqref="N8:N16"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2:M2" location="'Class Roster'!A1" tooltip="Select to navigate to Class Roster worksheet" display="GO TO CLASS ROSTER" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3:M3" location="'Student List'!A1" tooltip="Select to navigate to Student Details worksheet" display="GO TO STUDENT DETAILS" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F2:M2" location="'Class Roster'!A1" tooltip="Select to navigate to Class Roster worksheet" display="GO TO CLASS ROSTER"/>
+    <hyperlink ref="F3:M3" location="'Student List'!A1" tooltip="Select to navigate to Student Details worksheet" display="GO TO STUDENT DETAILS"/>
+    <hyperlink ref="E18" r:id="rId1"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="71" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter differentFirst="1">
     <oddHeader>&amp;RPage &amp;P of &amp;N</oddHeader>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -3059,41 +3086,41 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="1.58203125" customWidth="1"/>
-    <col min="3" max="3" width="40.58203125" customWidth="1"/>
-    <col min="4" max="4" width="43.9140625" customWidth="1"/>
+    <col min="1" max="2" width="1.625" customWidth="1"/>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="19.4140625" customWidth="1"/>
-    <col min="7" max="7" width="1.58203125" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="1.625" customWidth="1"/>
     <col min="8" max="8" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-    </row>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="39" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
       <c r="C4" s="12" t="s">
         <v>10</v>
@@ -3109,7 +3136,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
       <c r="C5" s="12" t="s">
         <v>11</v>
@@ -3125,7 +3152,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
         <v>14</v>
@@ -3138,11 +3165,11 @@
       <c r="F6" s="16"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="6" t="s">
         <v>1</v>
@@ -3160,7 +3187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
         <v>15</v>
@@ -3179,7 +3206,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="3" t="s">
         <v>16</v>
@@ -3198,7 +3225,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="3" t="s">
         <v>17</v>
@@ -3217,7 +3244,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="3" t="s">
         <v>18</v>
@@ -3236,7 +3263,7 @@
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -3255,7 +3282,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="23"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -3263,7 +3290,7 @@
       <c r="F14" s="27"/>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:C3"/>
@@ -3272,32 +3299,32 @@
     <mergeCell ref="D2:D3"/>
   </mergeCells>
   <dataValidations count="20">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select name from the list. Select CANCEL, press ALT+DOWN ARROW for options, then DOWN ARROW and ENTER to make selection" sqref="C9:C13" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select name from the list. Select CANCEL, press ALT+DOWN ARROW for options, then DOWN ARROW and ENTER to make selection" sqref="C9:C13">
       <formula1>StudentList</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Class Roster in this worksheet. Enter details in cell D2, cells D4 through D6, F4 and F5, and Student Roster table. Select cell E2 and E3 to navigate to other worksheets" sqref="A1" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter Institute name in cell at right" sqref="C2:C3" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Institute name in this cell" sqref="D2" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Student List worksheet" sqref="E2:G2" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Student Details worksheet" sqref="E3:G3" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Course name in cell at right" sqref="C4" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Course name in this cell" sqref="D4" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Instructor Name in cell at right" sqref="C5" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter number of Students Enrolled in cell at right" sqref="C6" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter number of Students Enrolled in this cell" sqref="D6" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in cell at right" sqref="E4" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this cell" sqref="F4" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter End Date in cell at right" sqref="E5" xr:uid="{00000000-0002-0000-0100-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter End Date in this cell and student details in table starting in cell C8" sqref="F5" xr:uid="{00000000-0002-0000-0100-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Student Name in this column under this heading. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make the selection" sqref="C8" xr:uid="{00000000-0002-0000-0100-00000F000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Email address is automatically updated in this column under this heading" sqref="D8" xr:uid="{00000000-0002-0000-0100-000010000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Phone number is automatically updated in this column under this heading" sqref="E8" xr:uid="{00000000-0002-0000-0100-000011000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell Phone number is automatically updated in this column under this heading" sqref="F8" xr:uid="{00000000-0002-0000-0100-000012000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Instructor Name in cell this cell" sqref="D5" xr:uid="{00000000-0002-0000-0100-000013000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Class Roster in this worksheet. Enter details in cell D2, cells D4 through D6, F4 and F5, and Student Roster table. Select cell E2 and E3 to navigate to other worksheets" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter Institute name in cell at right" sqref="C2:C3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Institute name in this cell" sqref="D2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Student List worksheet" sqref="E2:G2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Student Details worksheet" sqref="E3:G3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Course name in cell at right" sqref="C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Course name in this cell" sqref="D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Instructor Name in cell at right" sqref="C5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter number of Students Enrolled in cell at right" sqref="C6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter number of Students Enrolled in this cell" sqref="D6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in cell at right" sqref="E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this cell" sqref="F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter End Date in cell at right" sqref="E5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter End Date in this cell and student details in table starting in cell C8" sqref="F5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Student Name in this column under this heading. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make the selection" sqref="C8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Email address is automatically updated in this column under this heading" sqref="D8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Phone number is automatically updated in this column under this heading" sqref="E8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell Phone number is automatically updated in this column under this heading" sqref="F8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Instructor Name in cell this cell" sqref="D5"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2:G2" location="'Student List'!A1" tooltip="Select to navigate to Student List worksheet" display="GO TO STUDENT LIST" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E3:G3" location="'Student Details'!A1" tooltip="Select to navigate to Student Details worksheet" display="GO TO STUDENT DETAILS" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E2:G2" location="'Student List'!A1" tooltip="Select to navigate to Student List worksheet" display="GO TO STUDENT LIST"/>
+    <hyperlink ref="E3:G3" location="'Student Details'!A1" tooltip="Select to navigate to Student Details worksheet" display="GO TO STUDENT DETAILS"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3310,7 +3337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -3321,43 +3348,43 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="1.58203125" customWidth="1"/>
-    <col min="3" max="3" width="40.9140625" customWidth="1"/>
-    <col min="4" max="4" width="42.9140625" customWidth="1"/>
-    <col min="5" max="5" width="1.58203125" customWidth="1"/>
-    <col min="6" max="6" width="1.9140625" customWidth="1"/>
+    <col min="1" max="2" width="1.625" customWidth="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
+    <col min="4" max="4" width="42.875" customWidth="1"/>
+    <col min="5" max="5" width="1.625" customWidth="1"/>
+    <col min="6" max="6" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="46"/>
-    </row>
-    <row r="4" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="17" t="s">
         <v>1</v>
@@ -3367,7 +3394,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="19" t="s">
         <v>2</v>
@@ -3378,7 +3405,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="19" t="s">
         <v>3</v>
@@ -3389,7 +3416,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="19" t="s">
         <v>4</v>
@@ -3400,7 +3427,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="19" t="s">
         <v>0</v>
@@ -3411,7 +3438,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="19" t="s">
         <v>5</v>
@@ -3422,7 +3449,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="19" t="s">
         <v>6</v>
@@ -3433,7 +3460,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="19" t="s">
         <v>7</v>
@@ -3444,7 +3471,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="23"/>
       <c r="C13" s="24" t="s">
         <v>8</v>
@@ -3455,7 +3482,7 @@
       </c>
       <c r="E13" s="26"/>
     </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:5" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D2:E2"/>
@@ -3464,35 +3491,35 @@
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <dataValidations count="23">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select name from the list. Select CANCEL, press ALT+DOWN ARROW for options, then DOWN ARROW and ENTER to make selection" prompt="Select Student Name in this cell. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make the selection" sqref="D5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select name from the list. Select CANCEL, press ALT+DOWN ARROW for options, then DOWN ARROW and ENTER to make selection" prompt="Select Student Name in this cell. Press ALT+DOWN ARROW to open the drop-down list, then ENTER to make the selection" sqref="D5">
       <formula1>StudentList</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Get a list of Student Details in this worksheet. Select cell D2 to navigate to Student List worksheet and D3 to Class Roster worksheet" sqref="A1" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell, tip in cell below, and labels in cells C5 through C13. Select a student name in cell D5 to get student details in cells D5 through D13" sqref="C2:C3" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Student List worksheet" sqref="D2:E2" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Class Roster worksheet" sqref="D3:E3" xr:uid="{00000000-0002-0000-0200-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a Student Name in cell at right" sqref="C5" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Email address is automatically updated in cell at right" sqref="C6" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Email address is automatically updated in this cell" sqref="D6" xr:uid="{00000000-0002-0000-0200-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Phone number is automatically updated in cell at right" sqref="C7" xr:uid="{00000000-0002-0000-0200-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Phone number is automatically updated in this cell" sqref="D7" xr:uid="{00000000-0002-0000-0200-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell Phone number is automatically updated in cell at right" sqref="C8" xr:uid="{00000000-0002-0000-0200-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell Phone number is automatically updated in this cell" sqref="D8" xr:uid="{00000000-0002-0000-0200-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DOB is automatically updated in cell at right" sqref="C9" xr:uid="{00000000-0002-0000-0200-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DOB is automatically updated in this cell" sqref="D9" xr:uid="{00000000-0002-0000-0200-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Emergency Contact person name is automatically updated in cell at right" sqref="C10" xr:uid="{00000000-0002-0000-0200-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Emergency Contact person name is automatically updated in this cell" sqref="D10" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Emergency Phone number is automatically updated in cell at right" sqref="C11" xr:uid="{00000000-0002-0000-0200-000010000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Emergency Phone number is automatically updated in this cell" sqref="D11" xr:uid="{00000000-0002-0000-0200-000011000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Physician name is automatically updated in cell at right" sqref="C12" xr:uid="{00000000-0002-0000-0200-000012000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Physician name is automatically updated in this cell" sqref="D12" xr:uid="{00000000-0002-0000-0200-000013000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Physician Phone number is automatically updated in cell at right" sqref="C13" xr:uid="{00000000-0002-0000-0200-000014000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Physician Phone number is automatically updated in this cell" sqref="D13" xr:uid="{00000000-0002-0000-0200-000015000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Tip is in this cell" sqref="C4:D4" xr:uid="{00000000-0002-0000-0200-000016000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Get a list of Student Details in this worksheet. Select cell D2 to navigate to Student List worksheet and D3 to Class Roster worksheet" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell, tip in cell below, and labels in cells C5 through C13. Select a student name in cell D5 to get student details in cells D5 through D13" sqref="C2:C3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Student List worksheet" sqref="D2:E2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Class Roster worksheet" sqref="D3:E3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a Student Name in cell at right" sqref="C5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Email address is automatically updated in cell at right" sqref="C6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Email address is automatically updated in this cell" sqref="D6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Phone number is automatically updated in cell at right" sqref="C7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Home Phone number is automatically updated in this cell" sqref="D7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell Phone number is automatically updated in cell at right" sqref="C8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell Phone number is automatically updated in this cell" sqref="D8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DOB is automatically updated in cell at right" sqref="C9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DOB is automatically updated in this cell" sqref="D9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Emergency Contact person name is automatically updated in cell at right" sqref="C10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Emergency Contact person name is automatically updated in this cell" sqref="D10"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Emergency Phone number is automatically updated in cell at right" sqref="C11"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Emergency Phone number is automatically updated in this cell" sqref="D11"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Physician name is automatically updated in cell at right" sqref="C12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Physician name is automatically updated in this cell" sqref="D12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Physician Phone number is automatically updated in cell at right" sqref="C13"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Physician Phone number is automatically updated in this cell" sqref="D13"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Tip is in this cell" sqref="C4:D4"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2:E2" location="'Student List'!A1" tooltip="Select to navigate to Student List worksheet" display="GO TO STUDENT LIST" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D3:E3" location="'Class Roster'!A1" tooltip="Select to navigate to Class Roster worksheet" display="GO TO CLASS ROSTER" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D2:E2" location="'Student List'!A1" tooltip="Select to navigate to Student List worksheet" display="GO TO STUDENT LIST"/>
+    <hyperlink ref="D3:E3" location="'Class Roster'!A1" tooltip="Select to navigate to Class Roster worksheet" display="GO TO CLASS ROSTER"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3502,20 +3529,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3730,19 +3757,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1890A20-23E0-4045-A8CC-2EBB63F2FE0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97E442C5-663E-49AE-A3FF-0CA47E982697}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97E442C5-663E-49AE-A3FF-0CA47E982697}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1890A20-23E0-4045-A8CC-2EBB63F2FE0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Casa-Excel-Students.xlsx
+++ b/Casa-Excel-Students.xlsx
@@ -729,6 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,7 +778,6 @@
     <xf numFmtId="172" fontId="17" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Calculation" xfId="2" builtinId="22" customBuiltin="1"/>
@@ -2435,36 +2435,36 @@
     <row r="2" spans="2:18" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="33"/>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="34"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="40" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
@@ -2570,7 +2570,7 @@
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="34">
-        <f t="shared" ref="C7:C18" si="0">C6+1</f>
+        <f t="shared" ref="C7:C17" si="0">C6+1</f>
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2634,13 +2634,13 @@
       <c r="L8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
     </row>
     <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
@@ -2675,11 +2675,11 @@
       <c r="L9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
@@ -2714,11 +2714,11 @@
       <c r="L10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
@@ -2753,11 +2753,11 @@
       <c r="L11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
@@ -2792,11 +2792,11 @@
       <c r="L12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
     </row>
     <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
@@ -2831,11 +2831,11 @@
       <c r="L13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
@@ -2870,11 +2870,11 @@
       <c r="L14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
@@ -2909,11 +2909,11 @@
       <c r="L15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
@@ -2948,11 +2948,11 @@
       <c r="L16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
     </row>
     <row r="17" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
@@ -2987,11 +2987,11 @@
       <c r="L17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
     </row>
     <row r="18" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="23"/>
@@ -3001,7 +3001,7 @@
       <c r="D18" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="36" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="29" t="s">
@@ -3026,11 +3026,11 @@
         <v>38</v>
       </c>
       <c r="M18" s="30"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
     </row>
     <row r="19" spans="2:18" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -3100,25 +3100,25 @@
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="44" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
@@ -3360,28 +3360,28 @@
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="50" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3529,23 +3529,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9677210f24a1be23c92c90fd886aa0aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e05723c5c1908df1a1a4ebf11d344e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -3756,10 +3739,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97E442C5-663E-49AE-A3FF-0CA47E982697}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5E224E7-77A8-4810-A0C4-ADA144CC3DB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3782,20 +3793,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5E224E7-77A8-4810-A0C4-ADA144CC3DB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97E442C5-663E-49AE-A3FF-0CA47E982697}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>